--- a/xlsx/汶萊_intext.xlsx
+++ b/xlsx/汶萊_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="878">
   <si>
     <t>汶萊</t>
   </si>
@@ -29,7 +29,7 @@
     <t>汶萊國旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_汶萊</t>
+    <t>体育运动_体育运动_伊朗_汶萊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A%E5%9C%8B%E5%BE%BD</t>
@@ -1182,6 +1182,12 @@
   </si>
   <si>
     <t>华文</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
+  </si>
+  <si>
+    <t>Wayback Machine</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E8%A5%BF%E6%B4%8B%E8%80%83</t>
@@ -2991,7 +2997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I462"/>
+  <dimension ref="A1:I463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8990,7 +8996,7 @@
         <v>394</v>
       </c>
       <c r="G207" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="H207" t="s">
         <v>4</v>
@@ -9019,7 +9025,7 @@
         <v>396</v>
       </c>
       <c r="G208" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="H208" t="s">
         <v>4</v>
@@ -9042,13 +9048,13 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>73</v>
+        <v>397</v>
       </c>
       <c r="F209" t="s">
-        <v>74</v>
+        <v>398</v>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H209" t="s">
         <v>4</v>
@@ -9071,10 +9077,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>397</v>
+        <v>73</v>
       </c>
       <c r="F210" t="s">
-        <v>398</v>
+        <v>74</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9309,7 +9315,7 @@
         <v>414</v>
       </c>
       <c r="G218" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H218" t="s">
         <v>4</v>
@@ -9338,7 +9344,7 @@
         <v>416</v>
       </c>
       <c r="G219" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H219" t="s">
         <v>4</v>
@@ -9367,7 +9373,7 @@
         <v>418</v>
       </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H220" t="s">
         <v>4</v>
@@ -9419,13 +9425,13 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>203</v>
+        <v>421</v>
       </c>
       <c r="F222" t="s">
-        <v>204</v>
+        <v>422</v>
       </c>
       <c r="G222" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H222" t="s">
         <v>4</v>
@@ -9448,13 +9454,13 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>421</v>
+        <v>203</v>
       </c>
       <c r="F223" t="s">
-        <v>422</v>
+        <v>204</v>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H223" t="s">
         <v>4</v>
@@ -9477,10 +9483,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>203</v>
+        <v>423</v>
       </c>
       <c r="F224" t="s">
-        <v>204</v>
+        <v>424</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9506,10 +9512,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>423</v>
+        <v>203</v>
       </c>
       <c r="F225" t="s">
-        <v>424</v>
+        <v>204</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9628,7 +9634,7 @@
         <v>432</v>
       </c>
       <c r="G229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H229" t="s">
         <v>4</v>
@@ -9657,7 +9663,7 @@
         <v>434</v>
       </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H230" t="s">
         <v>4</v>
@@ -9680,10 +9686,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>67</v>
+        <v>435</v>
       </c>
       <c r="F231" t="s">
-        <v>68</v>
+        <v>436</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9709,10 +9715,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>203</v>
+        <v>67</v>
       </c>
       <c r="F232" t="s">
-        <v>204</v>
+        <v>68</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9738,13 +9744,13 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>11</v>
+        <v>203</v>
       </c>
       <c r="F233" t="s">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="G233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H233" t="s">
         <v>4</v>
@@ -9767,13 +9773,13 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>435</v>
+        <v>11</v>
       </c>
       <c r="F234" t="s">
-        <v>436</v>
+        <v>12</v>
       </c>
       <c r="G234" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H234" t="s">
         <v>4</v>
@@ -9796,13 +9802,13 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>105</v>
+        <v>437</v>
       </c>
       <c r="F235" t="s">
-        <v>106</v>
+        <v>438</v>
       </c>
       <c r="G235" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H235" t="s">
         <v>4</v>
@@ -9825,13 +9831,13 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>437</v>
+        <v>105</v>
       </c>
       <c r="F236" t="s">
-        <v>438</v>
+        <v>106</v>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H236" t="s">
         <v>4</v>
@@ -9889,7 +9895,7 @@
         <v>442</v>
       </c>
       <c r="G238" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H238" t="s">
         <v>4</v>
@@ -9918,7 +9924,7 @@
         <v>444</v>
       </c>
       <c r="G239" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H239" t="s">
         <v>4</v>
@@ -10034,7 +10040,7 @@
         <v>452</v>
       </c>
       <c r="G243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H243" t="s">
         <v>4</v>
@@ -10063,7 +10069,7 @@
         <v>454</v>
       </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H244" t="s">
         <v>4</v>
@@ -10208,7 +10214,7 @@
         <v>464</v>
       </c>
       <c r="G249" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H249" t="s">
         <v>4</v>
@@ -10237,7 +10243,7 @@
         <v>466</v>
       </c>
       <c r="G250" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H250" t="s">
         <v>4</v>
@@ -10295,7 +10301,7 @@
         <v>470</v>
       </c>
       <c r="G252" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
@@ -10324,7 +10330,7 @@
         <v>472</v>
       </c>
       <c r="G253" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H253" t="s">
         <v>4</v>
@@ -10353,7 +10359,7 @@
         <v>474</v>
       </c>
       <c r="G254" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H254" t="s">
         <v>4</v>
@@ -10382,7 +10388,7 @@
         <v>476</v>
       </c>
       <c r="G255" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H255" t="s">
         <v>4</v>
@@ -10411,7 +10417,7 @@
         <v>478</v>
       </c>
       <c r="G256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -10469,7 +10475,7 @@
         <v>482</v>
       </c>
       <c r="G258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H258" t="s">
         <v>4</v>
@@ -10550,13 +10556,13 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>267</v>
+        <v>487</v>
       </c>
       <c r="F261" t="s">
-        <v>268</v>
+        <v>488</v>
       </c>
       <c r="G261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H261" t="s">
         <v>4</v>
@@ -10579,10 +10585,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>487</v>
+        <v>267</v>
       </c>
       <c r="F262" t="s">
-        <v>488</v>
+        <v>268</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -10643,7 +10649,7 @@
         <v>492</v>
       </c>
       <c r="G264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -10672,7 +10678,7 @@
         <v>494</v>
       </c>
       <c r="G265" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -10788,7 +10794,7 @@
         <v>502</v>
       </c>
       <c r="G269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H269" t="s">
         <v>4</v>
@@ -10817,7 +10823,7 @@
         <v>504</v>
       </c>
       <c r="G270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H270" t="s">
         <v>4</v>
@@ -10991,7 +10997,7 @@
         <v>516</v>
       </c>
       <c r="G276" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H276" t="s">
         <v>4</v>
@@ -11020,7 +11026,7 @@
         <v>518</v>
       </c>
       <c r="G277" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H277" t="s">
         <v>4</v>
@@ -11049,7 +11055,7 @@
         <v>520</v>
       </c>
       <c r="G278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H278" t="s">
         <v>4</v>
@@ -11078,7 +11084,7 @@
         <v>522</v>
       </c>
       <c r="G279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H279" t="s">
         <v>4</v>
@@ -11107,7 +11113,7 @@
         <v>524</v>
       </c>
       <c r="G280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H280" t="s">
         <v>4</v>
@@ -11194,7 +11200,7 @@
         <v>530</v>
       </c>
       <c r="G283" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H283" t="s">
         <v>4</v>
@@ -11223,7 +11229,7 @@
         <v>532</v>
       </c>
       <c r="G284" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H284" t="s">
         <v>4</v>
@@ -11252,7 +11258,7 @@
         <v>534</v>
       </c>
       <c r="G285" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H285" t="s">
         <v>4</v>
@@ -11281,7 +11287,7 @@
         <v>536</v>
       </c>
       <c r="G286" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H286" t="s">
         <v>4</v>
@@ -11310,7 +11316,7 @@
         <v>538</v>
       </c>
       <c r="G287" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H287" t="s">
         <v>4</v>
@@ -11339,7 +11345,7 @@
         <v>540</v>
       </c>
       <c r="G288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H288" t="s">
         <v>4</v>
@@ -11368,7 +11374,7 @@
         <v>542</v>
       </c>
       <c r="G289" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H289" t="s">
         <v>4</v>
@@ -11426,7 +11432,7 @@
         <v>546</v>
       </c>
       <c r="G291" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H291" t="s">
         <v>4</v>
@@ -11455,7 +11461,7 @@
         <v>548</v>
       </c>
       <c r="G292" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H292" t="s">
         <v>4</v>
@@ -11484,7 +11490,7 @@
         <v>550</v>
       </c>
       <c r="G293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H293" t="s">
         <v>4</v>
@@ -11629,7 +11635,7 @@
         <v>560</v>
       </c>
       <c r="G298" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -11658,7 +11664,7 @@
         <v>562</v>
       </c>
       <c r="G299" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H299" t="s">
         <v>4</v>
@@ -11774,7 +11780,7 @@
         <v>570</v>
       </c>
       <c r="G303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H303" t="s">
         <v>4</v>
@@ -11861,7 +11867,7 @@
         <v>576</v>
       </c>
       <c r="G306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H306" t="s">
         <v>4</v>
@@ -11919,7 +11925,7 @@
         <v>580</v>
       </c>
       <c r="G308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H308" t="s">
         <v>4</v>
@@ -11948,7 +11954,7 @@
         <v>582</v>
       </c>
       <c r="G309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H309" t="s">
         <v>4</v>
@@ -12064,7 +12070,7 @@
         <v>590</v>
       </c>
       <c r="G313" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H313" t="s">
         <v>4</v>
@@ -12093,7 +12099,7 @@
         <v>592</v>
       </c>
       <c r="G314" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H314" t="s">
         <v>4</v>
@@ -12122,7 +12128,7 @@
         <v>594</v>
       </c>
       <c r="G315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H315" t="s">
         <v>4</v>
@@ -12151,7 +12157,7 @@
         <v>596</v>
       </c>
       <c r="G316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H316" t="s">
         <v>4</v>
@@ -12238,7 +12244,7 @@
         <v>602</v>
       </c>
       <c r="G319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H319" t="s">
         <v>4</v>
@@ -12267,7 +12273,7 @@
         <v>604</v>
       </c>
       <c r="G320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H320" t="s">
         <v>4</v>
@@ -12325,7 +12331,7 @@
         <v>608</v>
       </c>
       <c r="G322" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H322" t="s">
         <v>4</v>
@@ -12383,7 +12389,7 @@
         <v>612</v>
       </c>
       <c r="G324" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H324" t="s">
         <v>4</v>
@@ -12412,7 +12418,7 @@
         <v>614</v>
       </c>
       <c r="G325" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H325" t="s">
         <v>4</v>
@@ -12557,7 +12563,7 @@
         <v>624</v>
       </c>
       <c r="G330" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H330" t="s">
         <v>4</v>
@@ -12586,7 +12592,7 @@
         <v>626</v>
       </c>
       <c r="G331" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H331" t="s">
         <v>4</v>
@@ -12615,7 +12621,7 @@
         <v>628</v>
       </c>
       <c r="G332" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H332" t="s">
         <v>4</v>
@@ -12731,7 +12737,7 @@
         <v>636</v>
       </c>
       <c r="G336" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H336" t="s">
         <v>4</v>
@@ -12760,7 +12766,7 @@
         <v>638</v>
       </c>
       <c r="G337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H337" t="s">
         <v>4</v>
@@ -12818,7 +12824,7 @@
         <v>642</v>
       </c>
       <c r="G339" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H339" t="s">
         <v>4</v>
@@ -12847,7 +12853,7 @@
         <v>644</v>
       </c>
       <c r="G340" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H340" t="s">
         <v>4</v>
@@ -12876,7 +12882,7 @@
         <v>646</v>
       </c>
       <c r="G341" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H341" t="s">
         <v>4</v>
@@ -12899,13 +12905,13 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>379</v>
+        <v>647</v>
       </c>
       <c r="F342" t="s">
-        <v>380</v>
+        <v>648</v>
       </c>
       <c r="G342" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H342" t="s">
         <v>4</v>
@@ -12928,13 +12934,13 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>623</v>
+        <v>379</v>
       </c>
       <c r="F343" t="s">
-        <v>624</v>
+        <v>380</v>
       </c>
       <c r="G343" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H343" t="s">
         <v>4</v>
@@ -12957,10 +12963,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>647</v>
+        <v>625</v>
       </c>
       <c r="F344" t="s">
-        <v>648</v>
+        <v>626</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12992,7 +12998,7 @@
         <v>650</v>
       </c>
       <c r="G345" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H345" t="s">
         <v>4</v>
@@ -13021,7 +13027,7 @@
         <v>652</v>
       </c>
       <c r="G346" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H346" t="s">
         <v>4</v>
@@ -13079,7 +13085,7 @@
         <v>656</v>
       </c>
       <c r="G348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H348" t="s">
         <v>4</v>
@@ -13108,7 +13114,7 @@
         <v>658</v>
       </c>
       <c r="G349" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H349" t="s">
         <v>4</v>
@@ -13137,7 +13143,7 @@
         <v>660</v>
       </c>
       <c r="G350" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H350" t="s">
         <v>4</v>
@@ -13311,7 +13317,7 @@
         <v>672</v>
       </c>
       <c r="G356" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H356" t="s">
         <v>4</v>
@@ -13334,10 +13340,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>605</v>
+        <v>673</v>
       </c>
       <c r="F357" t="s">
-        <v>606</v>
+        <v>674</v>
       </c>
       <c r="G357" t="n">
         <v>2</v>
@@ -13363,13 +13369,13 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>673</v>
+        <v>607</v>
       </c>
       <c r="F358" t="s">
-        <v>674</v>
+        <v>608</v>
       </c>
       <c r="G358" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H358" t="s">
         <v>4</v>
@@ -13456,7 +13462,7 @@
         <v>680</v>
       </c>
       <c r="G361" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H361" t="s">
         <v>4</v>
@@ -13485,7 +13491,7 @@
         <v>682</v>
       </c>
       <c r="G362" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H362" t="s">
         <v>4</v>
@@ -13688,7 +13694,7 @@
         <v>696</v>
       </c>
       <c r="G369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H369" t="s">
         <v>4</v>
@@ -13717,7 +13723,7 @@
         <v>698</v>
       </c>
       <c r="G370" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H370" t="s">
         <v>4</v>
@@ -13775,7 +13781,7 @@
         <v>702</v>
       </c>
       <c r="G372" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H372" t="s">
         <v>4</v>
@@ -13804,7 +13810,7 @@
         <v>704</v>
       </c>
       <c r="G373" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H373" t="s">
         <v>4</v>
@@ -13978,7 +13984,7 @@
         <v>716</v>
       </c>
       <c r="G379" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H379" t="s">
         <v>4</v>
@@ -14007,7 +14013,7 @@
         <v>718</v>
       </c>
       <c r="G380" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H380" t="s">
         <v>4</v>
@@ -14123,7 +14129,7 @@
         <v>726</v>
       </c>
       <c r="G384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H384" t="s">
         <v>4</v>
@@ -14152,7 +14158,7 @@
         <v>728</v>
       </c>
       <c r="G385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H385" t="s">
         <v>4</v>
@@ -14326,7 +14332,7 @@
         <v>740</v>
       </c>
       <c r="G391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H391" t="s">
         <v>4</v>
@@ -14355,7 +14361,7 @@
         <v>742</v>
       </c>
       <c r="G392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H392" t="s">
         <v>4</v>
@@ -14407,10 +14413,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>619</v>
+        <v>745</v>
       </c>
       <c r="F394" t="s">
-        <v>620</v>
+        <v>746</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14436,10 +14442,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>745</v>
+        <v>621</v>
       </c>
       <c r="F395" t="s">
-        <v>746</v>
+        <v>622</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -15515,7 +15521,7 @@
         <v>820</v>
       </c>
       <c r="G432" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H432" t="s">
         <v>4</v>
@@ -15544,7 +15550,7 @@
         <v>822</v>
       </c>
       <c r="G433" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H433" t="s">
         <v>4</v>
@@ -15712,10 +15718,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>575</v>
+        <v>833</v>
       </c>
       <c r="F439" t="s">
-        <v>576</v>
+        <v>834</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15741,10 +15747,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>833</v>
+        <v>577</v>
       </c>
       <c r="F440" t="s">
-        <v>834</v>
+        <v>578</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15944,10 +15950,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>607</v>
+        <v>847</v>
       </c>
       <c r="F447" t="s">
-        <v>608</v>
+        <v>848</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -15973,10 +15979,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>847</v>
+        <v>609</v>
       </c>
       <c r="F448" t="s">
-        <v>848</v>
+        <v>610</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16182,7 +16188,7 @@
         <v>862</v>
       </c>
       <c r="G455" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H455" t="s">
         <v>4</v>
@@ -16211,7 +16217,7 @@
         <v>864</v>
       </c>
       <c r="G456" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H456" t="s">
         <v>4</v>
@@ -16356,7 +16362,7 @@
         <v>874</v>
       </c>
       <c r="G461" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H461" t="s">
         <v>4</v>
@@ -16379,18 +16385,47 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="F462" t="s">
+        <v>876</v>
+      </c>
+      <c r="G462" t="n">
+        <v>12</v>
+      </c>
+      <c r="H462" t="s">
+        <v>4</v>
+      </c>
+      <c r="I462" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="s">
+        <v>0</v>
+      </c>
+      <c r="C463" t="s">
+        <v>1</v>
+      </c>
+      <c r="D463" t="n">
+        <v>462</v>
+      </c>
+      <c r="E463" t="s">
         <v>875</v>
       </c>
-      <c r="G462" t="n">
-        <v>1</v>
-      </c>
-      <c r="H462" t="s">
-        <v>4</v>
-      </c>
-      <c r="I462" t="n">
+      <c r="F463" t="s">
+        <v>877</v>
+      </c>
+      <c r="G463" t="n">
+        <v>1</v>
+      </c>
+      <c r="H463" t="s">
+        <v>4</v>
+      </c>
+      <c r="I463" t="n">
         <v>3</v>
       </c>
     </row>
